--- a/socisaWeb/imports/Import dosare.xlsx
+++ b/socisaWeb/imports/Import dosare.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$Q$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -129,9 +129,6 @@
     <t>Asigurat RCA</t>
   </si>
   <si>
-    <t>BCR</t>
-  </si>
-  <si>
     <t>IONESCU</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Serie sasiu RCA</t>
+  </si>
+  <si>
+    <t>BCR ASIGURARI</t>
   </si>
 </sst>
 </file>
@@ -161,8 +161,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="174" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -776,7 +776,7 @@
     <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="24" borderId="10" xfId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="24" borderId="10" xfId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="20" fillId="24" borderId="10" xfId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="24" borderId="10" xfId="114" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1345,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>1</v>
@@ -1401,13 +1401,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>13</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>14</v>
@@ -1457,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>19</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>25</v>

--- a/socisaWeb/imports/Import dosare.xlsx
+++ b/socisaWeb/imports/Import dosare.xlsx
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>14</v>
